--- a/output/dati_azioni_completo_2026-01-29.xlsx
+++ b/output/dati_azioni_completo_2026-01-29.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,79 +665,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DCX</t>
+          <t>HCTI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1501555</v>
+        <v>3257742</v>
       </c>
       <c r="C2" t="n">
-        <v>365342</v>
+        <v>10758725</v>
       </c>
       <c r="D2" t="n">
-        <v>26744</v>
+        <v>5860000</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00023</v>
+        <v>0.00098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0018600001</v>
+        <v>0.058819998</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>46051</v>
       </c>
       <c r="H2" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.06</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="n">
-        <v>5.07</v>
+        <v>0.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.87</v>
+        <v>0.27</v>
       </c>
       <c r="L2" t="n">
-        <v>4.11</v>
+        <v>0.3</v>
       </c>
       <c r="M2" t="n">
-        <v>29814300</v>
+        <v>126743200</v>
       </c>
       <c r="N2" t="n">
-        <v>3.92</v>
+        <v>0.4</v>
       </c>
       <c r="O2" t="n">
-        <v>29.41</v>
+        <v>31.46</v>
       </c>
       <c r="P2" t="n">
-        <v>4.35</v>
+        <v>0.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.800000000000001</v>
+        <v>-15.89</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>4.3</v>
+        <v>0.33</v>
       </c>
       <c r="U2" t="n">
-        <v>4.2</v>
+        <v>0.32</v>
       </c>
       <c r="V2" t="n">
-        <v>4.36</v>
+        <v>0.34</v>
       </c>
       <c r="W2" t="n">
-        <v>4.18</v>
+        <v>0.34</v>
       </c>
       <c r="X2" t="n">
-        <v>4.55</v>
+        <v>0.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.87</v>
+        <v>0.34</v>
       </c>
       <c r="Z2" t="n">
-        <v>36044595</v>
+        <v>35154473</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>4.55</v>
+        <v>0.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.87</v>
+        <v>0.33</v>
       </c>
       <c r="AD2" t="n">
-        <v>50548034</v>
+        <v>39861474</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="AF2" t="n">
-        <v>4.55</v>
+        <v>0.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.87</v>
+        <v>0.32</v>
       </c>
       <c r="AH2" t="n">
-        <v>64995568</v>
+        <v>101791432</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
@@ -773,13 +773,13 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>4.73</v>
+        <v>0.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.87</v>
+        <v>0.32</v>
       </c>
       <c r="AL2" t="n">
-        <v>66128590</v>
+        <v>424554210</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>4.14</v>
+        <v>0.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.87</v>
+        <v>0.4</v>
       </c>
       <c r="AP2" t="n">
-        <v>7560745</v>
+        <v>22576308</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="AR2" t="n">
-        <v>4.14</v>
+        <v>0.4</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.87</v>
+        <v>0.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>7560745</v>
+        <v>22576308</v>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
@@ -818,79 +818,79 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HCTI</t>
+          <t>SER</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3257742</v>
+        <v>37750788</v>
       </c>
       <c r="C3" t="n">
-        <v>10758725</v>
+        <v>10664064</v>
       </c>
       <c r="D3" t="n">
-        <v>5860000</v>
+        <v>5190200</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00098</v>
+        <v>0.47299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.059380002</v>
+        <v>0.04325</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>46051</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>3.84</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3</v>
+        <v>2.72</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>4.08</v>
       </c>
       <c r="K3" t="n">
-        <v>0.27</v>
+        <v>3.41</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3</v>
+        <v>3.54</v>
       </c>
       <c r="M3" t="n">
-        <v>126743200</v>
+        <v>66266600</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4</v>
+        <v>3.84</v>
       </c>
       <c r="O3" t="n">
-        <v>31.46</v>
+        <v>41.18</v>
       </c>
       <c r="P3" t="n">
-        <v>0.33</v>
+        <v>3.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>-15.89</v>
+        <v>-1.32</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>0.33</v>
+        <v>3.85</v>
       </c>
       <c r="U3" t="n">
-        <v>0.32</v>
+        <v>3.47</v>
       </c>
       <c r="V3" t="n">
-        <v>0.34</v>
+        <v>3.66</v>
       </c>
       <c r="W3" t="n">
-        <v>0.34</v>
+        <v>3.55</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4</v>
+        <v>4.08</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.34</v>
+        <v>3.56</v>
       </c>
       <c r="Z3" t="n">
-        <v>35154473</v>
+        <v>53596481</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -898,13 +898,13 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>0.4</v>
+        <v>4.08</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.33</v>
+        <v>3.56</v>
       </c>
       <c r="AD3" t="n">
-        <v>39861474</v>
+        <v>56329684</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="AF3" t="n">
-        <v>0.4</v>
+        <v>4.08</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.32</v>
+        <v>3.41</v>
       </c>
       <c r="AH3" t="n">
-        <v>101791432</v>
+        <v>58940987</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>0.4</v>
+        <v>4.08</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.32</v>
+        <v>3.41</v>
       </c>
       <c r="AL3" t="n">
-        <v>424554210</v>
+        <v>62718266</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>0.4</v>
+        <v>3.84</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.4</v>
+        <v>3.68</v>
       </c>
       <c r="AP3" t="n">
-        <v>22576308</v>
+        <v>45041031</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="AR3" t="n">
-        <v>0.4</v>
+        <v>3.84</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.4</v>
+        <v>3.68</v>
       </c>
       <c r="AT3" t="n">
-        <v>22576308</v>
+        <v>45041031</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
@@ -971,79 +971,79 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SER</t>
+          <t>XHLD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37750788</v>
+        <v>9467025</v>
       </c>
       <c r="C4" t="n">
-        <v>10664064</v>
+        <v>2986443</v>
       </c>
       <c r="D4" t="n">
-        <v>5190200</v>
+        <v>1268032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47299</v>
+        <v>0.52435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04354</v>
+        <v>0.0064</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>46051</v>
       </c>
       <c r="H4" t="n">
-        <v>3.84</v>
+        <v>4.26</v>
       </c>
       <c r="I4" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
-        <v>4.08</v>
+        <v>4.54</v>
       </c>
       <c r="K4" t="n">
-        <v>3.41</v>
+        <v>2.65</v>
       </c>
       <c r="L4" t="n">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="M4" t="n">
-        <v>66266600</v>
+        <v>41107900</v>
       </c>
       <c r="N4" t="n">
-        <v>3.84</v>
+        <v>4.27</v>
       </c>
       <c r="O4" t="n">
-        <v>41.18</v>
+        <v>67.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.32</v>
+        <v>-15.8</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>3.85</v>
+        <v>3.29</v>
       </c>
       <c r="U4" t="n">
-        <v>3.47</v>
+        <v>3.13</v>
       </c>
       <c r="V4" t="n">
-        <v>3.66</v>
+        <v>2.84</v>
       </c>
       <c r="W4" t="n">
-        <v>3.55</v>
+        <v>3.03</v>
       </c>
       <c r="X4" t="n">
-        <v>4.08</v>
+        <v>4.54</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="Z4" t="n">
-        <v>53596481</v>
+        <v>16613720</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>4.08</v>
+        <v>4.54</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.56</v>
+        <v>3.23</v>
       </c>
       <c r="AD4" t="n">
-        <v>56329684</v>
+        <v>34071676</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="AF4" t="n">
-        <v>4.08</v>
+        <v>4.54</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.41</v>
+        <v>3</v>
       </c>
       <c r="AH4" t="n">
-        <v>58940987</v>
+        <v>35163879</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
@@ -1079,13 +1079,13 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>4.08</v>
+        <v>4.54</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.41</v>
+        <v>2.65</v>
       </c>
       <c r="AL4" t="n">
-        <v>62718266</v>
+        <v>37369254</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>3.84</v>
+        <v>4.54</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.68</v>
+        <v>4.26</v>
       </c>
       <c r="AP4" t="n">
-        <v>45041031</v>
+        <v>10265320</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
@@ -1107,168 +1107,15 @@
         </is>
       </c>
       <c r="AR4" t="n">
-        <v>3.84</v>
+        <v>4.54</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.68</v>
+        <v>4.26</v>
       </c>
       <c r="AT4" t="n">
-        <v>45041031</v>
+        <v>10265320</v>
       </c>
       <c r="AU4" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>XHLD</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9467025</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2986443</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1268032</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.52435</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.00343</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>46051</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="M5" t="n">
-        <v>41107900</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="O5" t="n">
-        <v>67.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-15.8</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>16613720</v>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>34071676</v>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AF5" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>35163879</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AJ5" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>37369254</v>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>10265320</v>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="AR5" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>10265320</v>
-      </c>
-      <c r="AU5" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
